--- a/GamingDevices.xlsx
+++ b/GamingDevices.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20357"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10921"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rwalker\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rwalker/TrashMe/DADMStuff/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C439F12D-66E5-4E6F-BB4A-263740A41A1A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{24F9C93E-9E5D-4149-B973-21A5CF16D575}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" xr2:uid="{3D48091C-1788-2747-805B-D3D051CABC28}"/>
   </bookViews>
   <sheets>
-    <sheet name="GD" sheetId="1" r:id="rId1"/>
+    <sheet name="GamingDevicesXL" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="7">
   <si>
     <t>Subject</t>
   </si>
@@ -37,56 +37,35 @@
     <t>With</t>
   </si>
   <si>
-    <t>units</t>
+    <t>Like</t>
   </si>
   <si>
-    <t>$ per unit * units</t>
-  </si>
-  <si>
-    <t>100$ divided by marginal dollars</t>
-  </si>
-  <si>
-    <t>Average</t>
-  </si>
-  <si>
-    <t>Deviation</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>Numerator</t>
-  </si>
-  <si>
-    <t>df</t>
-  </si>
-  <si>
-    <t>Denominator</t>
+    <t>Not Like</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
+  <fonts count="18" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="Calibri Light"/>
+      <name val="Aptos Display"/>
       <family val="2"/>
       <scheme val="major"/>
     </font>
@@ -94,7 +73,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -102,7 +81,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -110,104 +89,98 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FF9C5700"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF333333"/>
-      <name val="Consolas"/>
-      <family val="3"/>
     </font>
   </fonts>
   <fills count="33">
@@ -391,7 +364,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -506,21 +479,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -566,14 +524,8 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="4" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -643,39 +595,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -727,7 +679,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -838,13 +790,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -853,6 +798,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -917,30 +869,45 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4EC9FF9-381A-5D41-89B5-3C56A1D62B95}">
+  <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="T7" sqref="T7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="20" max="20" width="17.7109375" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -956,26 +923,11 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="G1">
-        <v>3.7629999999999999</v>
-      </c>
-      <c r="H1">
-        <v>6.2370000000000001</v>
-      </c>
-      <c r="I1" t="s">
-        <v>5</v>
-      </c>
-      <c r="P1" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>9</v>
-      </c>
-      <c r="T1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -991,33 +943,11 @@
       <c r="E2">
         <v>124</v>
       </c>
-      <c r="G2">
-        <f>G1*8</f>
-        <v>30.103999999999999</v>
-      </c>
-      <c r="H2">
-        <f>H1*8</f>
-        <v>49.896000000000001</v>
-      </c>
-      <c r="I2" t="s">
-        <v>6</v>
-      </c>
-      <c r="P2">
-        <f>AVERAGE(D2:D37)</f>
-        <v>104</v>
-      </c>
-      <c r="Q2">
-        <f>D2-$P$2</f>
-        <v>12</v>
-      </c>
-      <c r="T2" s="1">
-        <v>4689.5439999999999</v>
-      </c>
-      <c r="U2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1033,29 +963,11 @@
       <c r="E3">
         <v>119</v>
       </c>
-      <c r="G3">
-        <f>100/G2</f>
-        <v>3.3218176986446983</v>
-      </c>
-      <c r="H3">
-        <f>100/H2</f>
-        <v>2.0041686708353375</v>
-      </c>
-      <c r="I3" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q3">
-        <f t="shared" ref="Q3:Q37" si="0">D3-$P$2</f>
-        <v>8</v>
-      </c>
-      <c r="T3">
-        <v>1</v>
-      </c>
-      <c r="U3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1071,18 +983,11 @@
       <c r="E4">
         <v>114</v>
       </c>
-      <c r="Q4">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="T4" s="1">
-        <v>1208.4559999999999</v>
-      </c>
-      <c r="U4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1098,15 +1003,11 @@
       <c r="E5">
         <v>114</v>
       </c>
-      <c r="Q5">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="T5" s="2">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1122,20 +1023,11 @@
       <c r="E6">
         <v>109</v>
       </c>
-      <c r="G6">
-        <f>65.554 + 0.214*179</f>
-        <v>103.86</v>
-      </c>
-      <c r="N6">
-        <f>4689.544/5898</f>
-        <v>0.79510749406578496</v>
-      </c>
-      <c r="Q6">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="F6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1151,16 +1043,11 @@
       <c r="E7">
         <v>129</v>
       </c>
-      <c r="Q7">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="T7">
-        <f>(T2/T3)/(T4/T5)</f>
-        <v>131.94067140218593</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="F7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1176,12 +1063,11 @@
       <c r="E8">
         <v>89</v>
       </c>
-      <c r="Q8">
-        <f t="shared" si="0"/>
-        <v>-19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1197,12 +1083,11 @@
       <c r="E9">
         <v>99</v>
       </c>
-      <c r="Q9">
-        <f t="shared" si="0"/>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="F9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1218,12 +1103,11 @@
       <c r="E10">
         <v>104</v>
       </c>
-      <c r="Q10">
-        <f t="shared" si="0"/>
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="F10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1239,16 +1123,11 @@
       <c r="E11">
         <v>104</v>
       </c>
-      <c r="G11">
-        <f>D11-G6</f>
-        <v>-9.86</v>
-      </c>
-      <c r="Q11">
-        <f t="shared" si="0"/>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="F11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1264,12 +1143,11 @@
       <c r="E12">
         <v>124</v>
       </c>
-      <c r="Q12">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="F12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1285,12 +1163,11 @@
       <c r="E13">
         <v>119</v>
       </c>
-      <c r="Q13">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="F13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1306,12 +1183,11 @@
       <c r="E14">
         <v>109</v>
       </c>
-      <c r="Q14">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="F14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1327,12 +1203,11 @@
       <c r="E15">
         <v>94</v>
       </c>
-      <c r="Q15">
-        <f t="shared" si="0"/>
-        <v>-13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="F15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1348,12 +1223,11 @@
       <c r="E16">
         <v>119</v>
       </c>
-      <c r="Q16">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="F16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1369,12 +1243,11 @@
       <c r="E17">
         <v>104</v>
       </c>
-      <c r="Q17">
-        <f t="shared" si="0"/>
-        <v>-15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="F17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1390,12 +1263,11 @@
       <c r="E18">
         <v>109</v>
       </c>
-      <c r="Q18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="F18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1411,12 +1283,11 @@
       <c r="E19">
         <v>94</v>
       </c>
-      <c r="Q19">
-        <f t="shared" si="0"/>
-        <v>-13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="F19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1432,12 +1303,11 @@
       <c r="E20">
         <v>99</v>
       </c>
-      <c r="Q20">
-        <f t="shared" si="0"/>
-        <v>-9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="F20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1453,12 +1323,11 @@
       <c r="E21">
         <v>134</v>
       </c>
-      <c r="Q21">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="F21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1474,12 +1343,11 @@
       <c r="E22">
         <v>99</v>
       </c>
-      <c r="Q22">
-        <f t="shared" si="0"/>
-        <v>-14</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="F22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1495,12 +1363,11 @@
       <c r="E23">
         <v>114</v>
       </c>
-      <c r="Q23">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="F23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1516,12 +1383,11 @@
       <c r="E24">
         <v>109</v>
       </c>
-      <c r="Q24">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="F24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1537,12 +1403,11 @@
       <c r="E25">
         <v>84</v>
       </c>
-      <c r="Q25">
-        <f t="shared" si="0"/>
-        <v>-32</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="F25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1558,12 +1423,11 @@
       <c r="E26">
         <v>124</v>
       </c>
-      <c r="Q26">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="F26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1579,12 +1443,11 @@
       <c r="E27">
         <v>119</v>
       </c>
-      <c r="Q27">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="F27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1600,12 +1463,11 @@
       <c r="E28">
         <v>114</v>
       </c>
-      <c r="Q28">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="F28" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1621,12 +1483,11 @@
       <c r="E29">
         <v>114</v>
       </c>
-      <c r="Q29">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="F29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1642,12 +1503,11 @@
       <c r="E30">
         <v>109</v>
       </c>
-      <c r="Q30">
-        <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="F30" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1663,12 +1523,11 @@
       <c r="E31">
         <v>129</v>
       </c>
-      <c r="Q31">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="F31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1684,12 +1543,11 @@
       <c r="E32">
         <v>94</v>
       </c>
-      <c r="Q32">
-        <f t="shared" si="0"/>
-        <v>-12</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="F32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1705,12 +1563,11 @@
       <c r="E33">
         <v>99</v>
       </c>
-      <c r="Q33">
-        <f t="shared" si="0"/>
-        <v>-8</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="F33" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1726,12 +1583,11 @@
       <c r="E34">
         <v>104</v>
       </c>
-      <c r="Q34">
-        <f t="shared" si="0"/>
-        <v>-4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="F34" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1747,12 +1603,11 @@
       <c r="E35">
         <v>104</v>
       </c>
-      <c r="Q35">
-        <f t="shared" si="0"/>
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="F35" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1768,12 +1623,11 @@
       <c r="E36">
         <v>109</v>
       </c>
-      <c r="Q36">
-        <f t="shared" si="0"/>
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="F36" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1789,13 +1643,11 @@
       <c r="E37">
         <v>89</v>
       </c>
-      <c r="Q37">
-        <f t="shared" si="0"/>
-        <v>-17</v>
+      <c r="F37" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>